--- a/Code/Results/Cases/Case_1_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.24550820624428</v>
+        <v>13.34503388707513</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.401681986512245</v>
+        <v>9.025676764793712</v>
       </c>
       <c r="E2">
-        <v>9.169163279763668</v>
+        <v>14.93975322502766</v>
       </c>
       <c r="F2">
-        <v>24.096156358452</v>
+        <v>36.79616141278254</v>
       </c>
       <c r="G2">
-        <v>2.116294472570497</v>
+        <v>3.682876781291748</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.76623927210735</v>
+        <v>29.7938504316008</v>
       </c>
       <c r="J2">
-        <v>7.104181700501742</v>
+        <v>11.26279986758615</v>
       </c>
       <c r="K2">
-        <v>13.05932165566454</v>
+        <v>9.231695708606876</v>
       </c>
       <c r="L2">
-        <v>6.574701292589477</v>
+        <v>10.00361220719645</v>
       </c>
       <c r="M2">
-        <v>9.697948723192612</v>
+        <v>14.81075265019728</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.89235173402817</v>
+        <v>27.90139393996111</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.63946153336737</v>
+        <v>13.22509735731198</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.355178168777599</v>
+        <v>9.032632520866819</v>
       </c>
       <c r="E3">
-        <v>9.239218036711113</v>
+        <v>14.97019616623903</v>
       </c>
       <c r="F3">
-        <v>24.06579339877162</v>
+        <v>36.89948319217237</v>
       </c>
       <c r="G3">
-        <v>2.121071716308992</v>
+        <v>3.684710401827016</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.06763930841748</v>
+        <v>29.91363246614572</v>
       </c>
       <c r="J3">
-        <v>7.144292883876376</v>
+        <v>11.27752368881742</v>
       </c>
       <c r="K3">
-        <v>12.35716513530311</v>
+        <v>8.976377409583556</v>
       </c>
       <c r="L3">
-        <v>6.36244022829757</v>
+        <v>9.982676467791443</v>
       </c>
       <c r="M3">
-        <v>9.383464996988785</v>
+        <v>14.77827274213438</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.94605512645403</v>
+        <v>27.98977383840431</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.25207404195654</v>
+        <v>13.15278558252374</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.328082147023165</v>
+        <v>9.037785239347059</v>
       </c>
       <c r="E4">
-        <v>9.28426513900466</v>
+        <v>14.98998817623658</v>
       </c>
       <c r="F4">
-        <v>24.06514327573334</v>
+        <v>36.97009924075528</v>
       </c>
       <c r="G4">
-        <v>2.12410089251867</v>
+        <v>3.6858968614514</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.2613840585833</v>
+        <v>29.99149965663736</v>
       </c>
       <c r="J4">
-        <v>7.16984171292779</v>
+        <v>11.28706726798239</v>
       </c>
       <c r="K4">
-        <v>11.90470837609119</v>
+        <v>8.816816741475469</v>
       </c>
       <c r="L4">
-        <v>6.230487478481341</v>
+        <v>9.970951468091711</v>
       </c>
       <c r="M4">
-        <v>9.187696556123495</v>
+        <v>14.75994411978592</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.99213677874105</v>
+        <v>28.04917860316347</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.09052646766598</v>
+        <v>13.12367934878537</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.317411310131656</v>
+        <v>9.04010732773863</v>
       </c>
       <c r="E5">
-        <v>9.303133833517581</v>
+        <v>14.99833087424754</v>
       </c>
       <c r="F5">
-        <v>24.06926703008125</v>
+        <v>37.00067824485422</v>
       </c>
       <c r="G5">
-        <v>2.125359903972416</v>
+        <v>3.686395640888251</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.3424921411086</v>
+        <v>30.02431926515922</v>
       </c>
       <c r="J5">
-        <v>7.180486506686997</v>
+        <v>11.29108321612628</v>
       </c>
       <c r="K5">
-        <v>11.71504940626249</v>
+        <v>8.751185826780567</v>
       </c>
       <c r="L5">
-        <v>6.176382022697381</v>
+        <v>9.966460593136214</v>
       </c>
       <c r="M5">
-        <v>9.107359309498305</v>
+        <v>14.75288581880645</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.01409481357416</v>
+        <v>28.07467760388186</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.06348429653938</v>
+        <v>13.11886888628936</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.315661954774791</v>
+        <v>9.040506352011256</v>
       </c>
       <c r="E6">
-        <v>9.306297880675672</v>
+        <v>14.99973294161724</v>
       </c>
       <c r="F6">
-        <v>24.07021281020386</v>
+        <v>37.00586466100337</v>
       </c>
       <c r="G6">
-        <v>2.125570461056703</v>
+        <v>3.686479387540173</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.3560895118105</v>
+        <v>30.02983470382716</v>
       </c>
       <c r="J6">
-        <v>7.182268223619579</v>
+        <v>11.29175773388071</v>
       </c>
       <c r="K6">
-        <v>11.68324072266077</v>
+        <v>8.740253963368977</v>
       </c>
       <c r="L6">
-        <v>6.167379995251464</v>
+        <v>9.965732317549856</v>
       </c>
       <c r="M6">
-        <v>9.093989004648513</v>
+        <v>14.75173873936509</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.01792957583226</v>
+        <v>28.07898963524959</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.24991004185721</v>
+        <v>13.1523915471253</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.327936728618329</v>
+        <v>9.037815654963952</v>
       </c>
       <c r="E7">
-        <v>9.284517536623175</v>
+        <v>14.99009956507709</v>
       </c>
       <c r="F7">
-        <v>24.06518130221788</v>
+        <v>36.9705043449712</v>
       </c>
       <c r="G7">
-        <v>2.124117771776652</v>
+        <v>3.685903526204432</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.26246921734483</v>
+        <v>29.99193786547307</v>
       </c>
       <c r="J7">
-        <v>7.169984324524005</v>
+        <v>11.28712091432849</v>
       </c>
       <c r="K7">
-        <v>11.90217181684466</v>
+        <v>8.815933955924413</v>
       </c>
       <c r="L7">
-        <v>6.229759041423758</v>
+        <v>9.970889735925194</v>
       </c>
       <c r="M7">
-        <v>9.186615212372356</v>
+        <v>14.75984725967833</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.99242019218079</v>
+        <v>28.04951726572109</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.03979755376213</v>
+        <v>13.30342017534668</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.385347824717789</v>
+        <v>9.027892424213613</v>
       </c>
       <c r="E8">
-        <v>9.19289635924037</v>
+        <v>14.95002208974322</v>
       </c>
       <c r="F8">
-        <v>24.08187218444384</v>
+        <v>36.8302961643949</v>
       </c>
       <c r="G8">
-        <v>2.117922048513165</v>
+        <v>3.683496462443272</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.86834160583717</v>
+        <v>29.83425554956582</v>
       </c>
       <c r="J8">
-        <v>7.117822221762658</v>
+        <v>11.26777243816801</v>
       </c>
       <c r="K8">
-        <v>12.82168926859036</v>
+        <v>9.144296439652463</v>
       </c>
       <c r="L8">
-        <v>6.50189359911662</v>
+        <v>9.996161021577048</v>
       </c>
       <c r="M8">
-        <v>9.590134416389164</v>
+        <v>14.79922154699387</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.90807760027194</v>
+        <v>27.93079999071199</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.46217807537139</v>
+        <v>13.60892581315117</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.509277099681826</v>
+        <v>9.015405040179621</v>
       </c>
       <c r="E9">
-        <v>9.02934800324225</v>
+        <v>14.88012546058818</v>
       </c>
       <c r="F9">
-        <v>24.26324869002116</v>
+        <v>36.61237524645715</v>
       </c>
       <c r="G9">
-        <v>2.106510831625331</v>
+        <v>3.679254988357498</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.16582363501833</v>
+        <v>29.55924651818902</v>
       </c>
       <c r="J9">
-        <v>7.022742636526713</v>
+        <v>11.23380577579654</v>
       </c>
       <c r="K9">
-        <v>14.45292479925718</v>
+        <v>9.762222151399543</v>
       </c>
       <c r="L9">
-        <v>7.019699944061229</v>
+        <v>10.05453838211056</v>
       </c>
       <c r="M9">
-        <v>10.35575002507099</v>
+        <v>14.88901935568959</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.8519669399373</v>
+        <v>27.73882492825158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.42452215884887</v>
+        <v>13.83742581507478</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.606931510635162</v>
+        <v>9.010446696228975</v>
       </c>
       <c r="E10">
-        <v>8.919008936918239</v>
+        <v>14.83402837523326</v>
       </c>
       <c r="F10">
-        <v>24.49485602258653</v>
+        <v>36.48714630551928</v>
       </c>
       <c r="G10">
-        <v>2.098544151207776</v>
+        <v>3.67642765961067</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.69495280331007</v>
+        <v>29.37794342083683</v>
       </c>
       <c r="J10">
-        <v>6.957150680092196</v>
+        <v>11.21125152074336</v>
       </c>
       <c r="K10">
-        <v>15.5441678462922</v>
+        <v>10.19569586932578</v>
       </c>
       <c r="L10">
-        <v>7.386959520902018</v>
+        <v>10.10260516588068</v>
       </c>
       <c r="M10">
-        <v>10.89729921667484</v>
+        <v>14.96235438571532</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.88466904387211</v>
+        <v>27.62274054294489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.84361028407463</v>
+        <v>13.94190051073367</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.652719057862474</v>
+        <v>9.009098767204389</v>
       </c>
       <c r="E11">
-        <v>8.870948016140506</v>
+        <v>14.81418940067027</v>
       </c>
       <c r="F11">
-        <v>24.62312909105693</v>
+        <v>36.43777016115737</v>
       </c>
       <c r="G11">
-        <v>2.095002756732699</v>
+        <v>3.675203527283136</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.4912154547774</v>
+        <v>29.29994662210366</v>
       </c>
       <c r="J11">
-        <v>6.928207674162906</v>
+        <v>11.20150757724405</v>
       </c>
       <c r="K11">
-        <v>16.01708815351993</v>
+        <v>10.38758036719895</v>
       </c>
       <c r="L11">
-        <v>7.550564681419988</v>
+        <v>10.1255500189486</v>
       </c>
       <c r="M11">
-        <v>11.13819243880854</v>
+        <v>14.9972433932176</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.91717715774416</v>
+        <v>27.57536427261901</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.99957881564825</v>
+        <v>13.98150870035486</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.670247401750676</v>
+        <v>9.008718153865088</v>
       </c>
       <c r="E12">
-        <v>8.853056078203316</v>
+        <v>14.80683878981825</v>
       </c>
       <c r="F12">
-        <v>24.67511713443174</v>
+        <v>36.42016564146635</v>
       </c>
       <c r="G12">
-        <v>2.093672943037448</v>
+        <v>3.674748852512026</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.41563506487952</v>
+        <v>29.27105377791849</v>
       </c>
       <c r="J12">
-        <v>6.917374082573718</v>
+        <v>11.19789165238574</v>
       </c>
       <c r="K12">
-        <v>16.19278662078657</v>
+        <v>10.45941613768696</v>
       </c>
       <c r="L12">
-        <v>7.611977370885167</v>
+        <v>10.13438960689643</v>
       </c>
       <c r="M12">
-        <v>11.2285629335455</v>
+        <v>15.01066830502535</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.93215227298172</v>
+        <v>27.55820616915065</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.9661102225819</v>
+        <v>13.97297680474622</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.666464031000236</v>
+        <v>9.008794363514189</v>
       </c>
       <c r="E13">
-        <v>8.856895723498695</v>
+        <v>14.80841468136598</v>
       </c>
       <c r="F13">
-        <v>24.66376691435097</v>
+        <v>36.4239084490265</v>
       </c>
       <c r="G13">
-        <v>2.093958853354936</v>
+        <v>3.674846380704651</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.43184165636335</v>
+        <v>29.27724779671384</v>
       </c>
       <c r="J13">
-        <v>6.919701700070832</v>
+        <v>11.19866712505312</v>
       </c>
       <c r="K13">
-        <v>16.15509744672449</v>
+        <v>10.44398274039496</v>
       </c>
       <c r="L13">
-        <v>7.598775731279993</v>
+        <v>10.13247920348335</v>
       </c>
       <c r="M13">
-        <v>11.20913880277533</v>
+        <v>15.00776763524702</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.92880652753809</v>
+        <v>27.56186666290809</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.85649684696695</v>
+        <v>13.94515835254834</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.654157362950201</v>
+        <v>9.009064856277318</v>
       </c>
       <c r="E14">
-        <v>8.869469862303692</v>
+        <v>14.81358141880592</v>
       </c>
       <c r="F14">
-        <v>24.62733709935799</v>
+        <v>36.43629991016073</v>
       </c>
       <c r="G14">
-        <v>2.094893130873658</v>
+        <v>3.675165943239624</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.48496552467995</v>
+        <v>29.29755671351101</v>
       </c>
       <c r="J14">
-        <v>6.927313865706522</v>
+        <v>11.20120861378118</v>
       </c>
       <c r="K14">
-        <v>16.0316108506031</v>
+        <v>10.39350725228996</v>
       </c>
       <c r="L14">
-        <v>7.555628207900791</v>
+        <v>10.12627425864771</v>
       </c>
       <c r="M14">
-        <v>11.14564466197296</v>
+        <v>14.9983436344829</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.91835501780831</v>
+        <v>27.57393698038613</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.78899875432366</v>
+        <v>13.92812383233789</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.646643670023648</v>
+        <v>9.009247425797293</v>
       </c>
       <c r="E15">
-        <v>8.877211990305439</v>
+        <v>14.81676727036166</v>
       </c>
       <c r="F15">
-        <v>24.60547079958227</v>
+        <v>36.44403244128813</v>
       </c>
       <c r="G15">
-        <v>2.09546684592723</v>
+        <v>3.675362839378638</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.51771206875044</v>
+        <v>29.31008019444708</v>
       </c>
       <c r="J15">
-        <v>6.931992944146844</v>
+        <v>11.20277496290187</v>
       </c>
       <c r="K15">
-        <v>15.95553067815361</v>
+        <v>10.36248010277944</v>
       </c>
       <c r="L15">
-        <v>7.529127474223952</v>
+        <v>10.1224930684489</v>
       </c>
       <c r="M15">
-        <v>11.10664011742662</v>
+        <v>14.99259872749077</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.91230406864764</v>
+        <v>27.58143230854273</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.39675366979296</v>
+        <v>13.83060620720842</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.603966074296</v>
+        <v>9.010552991501802</v>
       </c>
       <c r="E16">
-        <v>8.922192827112404</v>
+        <v>14.83534759968458</v>
       </c>
       <c r="F16">
-        <v>24.48694444320291</v>
+        <v>36.49052604408271</v>
       </c>
       <c r="G16">
-        <v>2.098777198455108</v>
+        <v>3.676508904147432</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.70848349794197</v>
+        <v>29.38313071756188</v>
       </c>
       <c r="J16">
-        <v>6.959059996520567</v>
+        <v>11.21189866823922</v>
       </c>
       <c r="K16">
-        <v>15.5127877737093</v>
+        <v>10.18304341651643</v>
       </c>
       <c r="L16">
-        <v>7.37619403011849</v>
+        <v>10.1011270151984</v>
       </c>
       <c r="M16">
-        <v>10.88144060761278</v>
+        <v>14.96010450592863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.882910439751</v>
+        <v>27.625946092063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.15130217934284</v>
+        <v>13.77089623953396</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.578129455076985</v>
+        <v>9.011585894379483</v>
       </c>
       <c r="E17">
-        <v>8.950333997590638</v>
+        <v>14.84703520831471</v>
       </c>
       <c r="F17">
-        <v>24.42018741703878</v>
+        <v>36.52099381494385</v>
       </c>
       <c r="G17">
-        <v>2.100828716991683</v>
+        <v>3.677227835516067</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.82823965432921</v>
+        <v>29.42909112583853</v>
       </c>
       <c r="J17">
-        <v>6.975892446357933</v>
+        <v>11.21762772326681</v>
       </c>
       <c r="K17">
-        <v>15.23515379935247</v>
+        <v>10.07155869688465</v>
       </c>
       <c r="L17">
-        <v>7.281454716349035</v>
+        <v>10.08829299460348</v>
       </c>
       <c r="M17">
-        <v>10.74184008121307</v>
+        <v>14.9405572227253</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.86948656960409</v>
+        <v>27.65464582318095</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.0083677363477</v>
+        <v>13.73660422337798</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.563397703350362</v>
+        <v>9.012265468461274</v>
       </c>
       <c r="E18">
-        <v>8.966720733832881</v>
+        <v>14.85386408732163</v>
       </c>
       <c r="F18">
-        <v>24.38394053111447</v>
+        <v>36.53923250468159</v>
       </c>
       <c r="G18">
-        <v>2.102016520643057</v>
+        <v>3.677647187264493</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.89810069770221</v>
+        <v>29.45594798098218</v>
       </c>
       <c r="J18">
-        <v>6.985658412509654</v>
+        <v>11.22097152089862</v>
       </c>
       <c r="K18">
-        <v>15.07325478354431</v>
+        <v>10.00693973550747</v>
       </c>
       <c r="L18">
-        <v>7.226639377636553</v>
+        <v>10.08101303604266</v>
       </c>
       <c r="M18">
-        <v>10.66103492241176</v>
+        <v>14.92945842458094</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.8634173530851</v>
+        <v>27.67166427842325</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.95967234587355</v>
+        <v>13.7250033170629</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.558432104793811</v>
+        <v>9.012510261969227</v>
       </c>
       <c r="E19">
-        <v>8.972303443027963</v>
+        <v>14.85619453507535</v>
       </c>
       <c r="F19">
-        <v>24.37203351007786</v>
+        <v>36.54553046513438</v>
       </c>
       <c r="G19">
-        <v>2.102420053740112</v>
+        <v>3.677790177144392</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.92192098744328</v>
+        <v>29.46511370591635</v>
       </c>
       <c r="J19">
-        <v>6.988979561294906</v>
+        <v>11.22211202963954</v>
       </c>
       <c r="K19">
-        <v>15.01805916710744</v>
+        <v>9.984977742106748</v>
       </c>
       <c r="L19">
-        <v>7.208025648917965</v>
+        <v>10.07856578492933</v>
       </c>
       <c r="M19">
-        <v>10.63359012523723</v>
+        <v>14.92572554029424</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.86164217400095</v>
+        <v>27.6775141817427</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.17761313792481</v>
+        <v>13.77724734861828</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.580866525773026</v>
+        <v>9.011467098687845</v>
       </c>
       <c r="E20">
-        <v>8.947317546269586</v>
+        <v>14.84578002720121</v>
       </c>
       <c r="F20">
-        <v>24.42707042238116</v>
+        <v>36.51767651548095</v>
       </c>
       <c r="G20">
-        <v>2.100609524162686</v>
+        <v>3.677150699788265</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.81538948494587</v>
+        <v>29.42415493222818</v>
       </c>
       <c r="J20">
-        <v>6.974091885650058</v>
+        <v>11.21701282832794</v>
       </c>
       <c r="K20">
-        <v>15.2649373588034</v>
+        <v>10.08347824161478</v>
       </c>
       <c r="L20">
-        <v>7.291573720907139</v>
+        <v>10.08964868952302</v>
       </c>
       <c r="M20">
-        <v>10.75675414619091</v>
+        <v>14.94262317883974</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.87074366515595</v>
+        <v>27.65153777837853</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.88876735549963</v>
+        <v>13.95332830004562</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.657767036231021</v>
+        <v>9.008981888489625</v>
       </c>
       <c r="E21">
-        <v>8.865768172898427</v>
+        <v>14.81205943174296</v>
       </c>
       <c r="F21">
-        <v>24.63794384900836</v>
+        <v>36.43263055845455</v>
       </c>
       <c r="G21">
-        <v>2.094618411403906</v>
+        <v>3.675071839381294</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.46931856228177</v>
+        <v>29.29157405499163</v>
       </c>
       <c r="J21">
-        <v>6.925074572900949</v>
+        <v>11.20046011397506</v>
       </c>
       <c r="K21">
-        <v>16.06797377701678</v>
+        <v>10.40835604262236</v>
       </c>
       <c r="L21">
-        <v>7.568316677121607</v>
+        <v>10.12809274176572</v>
       </c>
       <c r="M21">
-        <v>11.16431798950753</v>
+        <v>15.00110595938435</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.92135152110125</v>
+        <v>27.57037039539492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.33761783832848</v>
+        <v>14.06866106827364</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.709128073443805</v>
+        <v>9.008113994661317</v>
       </c>
       <c r="E22">
-        <v>8.814265086021125</v>
+        <v>14.79096491738746</v>
       </c>
       <c r="F22">
-        <v>24.79571146405846</v>
+        <v>36.3834204111503</v>
       </c>
       <c r="G22">
-        <v>2.090768029598493</v>
+        <v>3.673764909626503</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.25233289383449</v>
+        <v>29.20867128228449</v>
       </c>
       <c r="J22">
-        <v>6.893775191646108</v>
+        <v>11.19007252924834</v>
       </c>
       <c r="K22">
-        <v>16.57306962718394</v>
+        <v>10.61583830329998</v>
       </c>
       <c r="L22">
-        <v>7.746015021609383</v>
+        <v>10.1540954400318</v>
       </c>
       <c r="M22">
-        <v>11.4257029419278</v>
+        <v>15.04056732887578</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.97002017092815</v>
+        <v>27.52188297711038</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.09952659158297</v>
+        <v>14.00709248337312</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.681617028717404</v>
+        <v>9.008508239851791</v>
       </c>
       <c r="E23">
-        <v>8.841588678609501</v>
+        <v>14.8021373022464</v>
       </c>
       <c r="F23">
-        <v>24.70964466450877</v>
+        <v>36.40910127104191</v>
       </c>
       <c r="G23">
-        <v>2.092817315729783</v>
+        <v>3.674457723774538</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.36727695018875</v>
+        <v>29.25257563625451</v>
       </c>
       <c r="J23">
-        <v>6.910413633578942</v>
+        <v>11.19557728619464</v>
       </c>
       <c r="K23">
-        <v>16.30529658669576</v>
+        <v>10.50556389771862</v>
       </c>
       <c r="L23">
-        <v>7.651476671965295</v>
+        <v>10.14013849647362</v>
       </c>
       <c r="M23">
-        <v>11.28667194997178</v>
+        <v>15.01939487554265</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.94257527238176</v>
+        <v>27.54734396812293</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.16572362243514</v>
+        <v>13.774375897644</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.579628715408075</v>
+        <v>9.011520539098036</v>
       </c>
       <c r="E24">
-        <v>8.948680636101045</v>
+        <v>14.84634715341165</v>
       </c>
       <c r="F24">
-        <v>24.42395198210495</v>
+        <v>36.51917401657509</v>
       </c>
       <c r="G24">
-        <v>2.100708595157245</v>
+        <v>3.677185554069255</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.82119590036682</v>
+        <v>29.4263852346113</v>
       </c>
       <c r="J24">
-        <v>6.974905642490739</v>
+        <v>11.21729066628989</v>
       </c>
       <c r="K24">
-        <v>15.25147932359359</v>
+        <v>10.07809104550581</v>
       </c>
       <c r="L24">
-        <v>7.287000000939156</v>
+        <v>10.08903547273668</v>
       </c>
       <c r="M24">
-        <v>10.75001319600112</v>
+        <v>14.94168872600412</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.87017020784882</v>
+        <v>27.65294131012129</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.09159074436516</v>
+        <v>13.52544783836396</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.474567296200437</v>
+        <v>9.018040232544298</v>
       </c>
       <c r="E25">
-        <v>9.071867917181358</v>
+        <v>14.89810813045954</v>
       </c>
       <c r="F25">
-        <v>24.19745145890705</v>
+        <v>36.66521113875774</v>
       </c>
       <c r="G25">
-        <v>2.109522116785081</v>
+        <v>3.680351474113276</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.34811765265347</v>
+        <v>29.62999297546332</v>
       </c>
       <c r="J25">
-        <v>7.047705855100038</v>
+        <v>11.24257138652865</v>
       </c>
       <c r="K25">
-        <v>14.03034389031406</v>
+        <v>9.598346821690253</v>
       </c>
       <c r="L25">
-        <v>6.881703920149944</v>
+        <v>10.0378214437589</v>
       </c>
       <c r="M25">
-        <v>10.15196415936201</v>
+        <v>14.86341052512986</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.85469582337119</v>
+        <v>27.78638085103452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.34503388707513</v>
+        <v>11.24550820624429</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.025676764793712</v>
+        <v>5.401681986512255</v>
       </c>
       <c r="E2">
-        <v>14.93975322502766</v>
+        <v>9.16916327976374</v>
       </c>
       <c r="F2">
-        <v>36.79616141278254</v>
+        <v>24.096156358452</v>
       </c>
       <c r="G2">
-        <v>3.682876781291748</v>
+        <v>2.116294472570364</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.7938504316008</v>
+        <v>18.76623927210742</v>
       </c>
       <c r="J2">
-        <v>11.26279986758615</v>
+        <v>7.104181700501877</v>
       </c>
       <c r="K2">
-        <v>9.231695708606876</v>
+        <v>13.05932165566451</v>
       </c>
       <c r="L2">
-        <v>10.00361220719645</v>
+        <v>6.574701292589532</v>
       </c>
       <c r="M2">
-        <v>14.81075265019728</v>
+        <v>9.697948723192628</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.90139393996111</v>
+        <v>17.89235173402822</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22509735731198</v>
+        <v>10.63946153336732</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.032632520866819</v>
+        <v>5.355178168777719</v>
       </c>
       <c r="E3">
-        <v>14.97019616623903</v>
+        <v>9.239218036711316</v>
       </c>
       <c r="F3">
-        <v>36.89948319217237</v>
+        <v>24.06579339877138</v>
       </c>
       <c r="G3">
-        <v>3.684710401827016</v>
+        <v>2.121071716308859</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.91363246614572</v>
+        <v>19.06763930841728</v>
       </c>
       <c r="J3">
-        <v>11.27752368881742</v>
+        <v>7.144292883876442</v>
       </c>
       <c r="K3">
-        <v>8.976377409583556</v>
+        <v>12.35716513530321</v>
       </c>
       <c r="L3">
-        <v>9.982676467791443</v>
+        <v>6.362440228297597</v>
       </c>
       <c r="M3">
-        <v>14.77827274213438</v>
+        <v>9.383464996988767</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.98977383840431</v>
+        <v>17.94605512645379</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.15278558252374</v>
+        <v>10.25207404195647</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.037785239347059</v>
+        <v>5.32808214702316</v>
       </c>
       <c r="E4">
-        <v>14.98998817623658</v>
+        <v>9.284265139004724</v>
       </c>
       <c r="F4">
-        <v>36.97009924075528</v>
+        <v>24.06514327573316</v>
       </c>
       <c r="G4">
-        <v>3.6858968614514</v>
+        <v>2.124100892518535</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.99149965663736</v>
+        <v>19.26138405858319</v>
       </c>
       <c r="J4">
-        <v>11.28706726798239</v>
+        <v>7.16984171292779</v>
       </c>
       <c r="K4">
-        <v>8.816816741475469</v>
+        <v>11.90470837609132</v>
       </c>
       <c r="L4">
-        <v>9.970951468091711</v>
+        <v>6.230487478481311</v>
       </c>
       <c r="M4">
-        <v>14.75994411978592</v>
+        <v>9.187696556123429</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.04917860316347</v>
+        <v>17.99213677874086</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.12367934878537</v>
+        <v>10.09052646766597</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.04010732773863</v>
+        <v>5.317411310131664</v>
       </c>
       <c r="E5">
-        <v>14.99833087424754</v>
+        <v>9.303133833517583</v>
       </c>
       <c r="F5">
-        <v>37.00067824485422</v>
+        <v>24.06926703008109</v>
       </c>
       <c r="G5">
-        <v>3.686395640888251</v>
+        <v>2.125359903972282</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.02431926515922</v>
+        <v>19.3424921411085</v>
       </c>
       <c r="J5">
-        <v>11.29108321612628</v>
+        <v>7.180486506686995</v>
       </c>
       <c r="K5">
-        <v>8.751185826780567</v>
+        <v>11.71504940626257</v>
       </c>
       <c r="L5">
-        <v>9.966460593136214</v>
+        <v>6.176382022697361</v>
       </c>
       <c r="M5">
-        <v>14.75288581880645</v>
+        <v>9.107359309498264</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.07467760388186</v>
+        <v>18.01409481357399</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.11886888628936</v>
+        <v>10.0634842965394</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.040506352011256</v>
+        <v>5.315661954774851</v>
       </c>
       <c r="E6">
-        <v>14.99973294161724</v>
+        <v>9.306297880675807</v>
       </c>
       <c r="F6">
-        <v>37.00586466100337</v>
+        <v>24.07021281020364</v>
       </c>
       <c r="G6">
-        <v>3.686479387540173</v>
+        <v>2.125570461056569</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.02983470382716</v>
+        <v>19.35608951181047</v>
       </c>
       <c r="J6">
-        <v>11.29175773388071</v>
+        <v>7.182268223619682</v>
       </c>
       <c r="K6">
-        <v>8.740253963368977</v>
+        <v>11.6832407226609</v>
       </c>
       <c r="L6">
-        <v>9.965732317549856</v>
+        <v>6.167379995251366</v>
       </c>
       <c r="M6">
-        <v>14.75173873936509</v>
+        <v>9.093989004648458</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.07898963524959</v>
+        <v>18.01792957583204</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.1523915471253</v>
+        <v>10.24991004185719</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.037815654963952</v>
+        <v>5.327936728618278</v>
       </c>
       <c r="E7">
-        <v>14.99009956507709</v>
+        <v>9.28451753662311</v>
       </c>
       <c r="F7">
-        <v>36.9705043449712</v>
+        <v>24.06518130221749</v>
       </c>
       <c r="G7">
-        <v>3.685903526204432</v>
+        <v>2.124117771776385</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.99193786547307</v>
+        <v>19.26246921734457</v>
       </c>
       <c r="J7">
-        <v>11.28712091432849</v>
+        <v>7.169984324524139</v>
       </c>
       <c r="K7">
-        <v>8.815933955924413</v>
+        <v>11.90217181684467</v>
       </c>
       <c r="L7">
-        <v>9.970889735925194</v>
+        <v>6.229759041423788</v>
       </c>
       <c r="M7">
-        <v>14.75984725967833</v>
+        <v>9.186615212372327</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.04951726572109</v>
+        <v>17.99242019218056</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30342017534668</v>
+        <v>11.03979755376208</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.027892424213613</v>
+        <v>5.385347824717565</v>
       </c>
       <c r="E8">
-        <v>14.95002208974322</v>
+        <v>9.192896359240239</v>
       </c>
       <c r="F8">
-        <v>36.8302961643949</v>
+        <v>24.08187218444358</v>
       </c>
       <c r="G8">
-        <v>3.683496462443272</v>
+        <v>2.117922048512499</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.83425554956582</v>
+        <v>18.86834160583705</v>
       </c>
       <c r="J8">
-        <v>11.26777243816801</v>
+        <v>7.117822221762689</v>
       </c>
       <c r="K8">
-        <v>9.144296439652463</v>
+        <v>12.82168926859039</v>
       </c>
       <c r="L8">
-        <v>9.996161021577048</v>
+        <v>6.501893599116548</v>
       </c>
       <c r="M8">
-        <v>14.79922154699387</v>
+        <v>9.5901344163891</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.93079999071199</v>
+        <v>17.90807760027182</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.60892581315117</v>
+        <v>12.46217807537139</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.015405040179621</v>
+        <v>5.509277099681675</v>
       </c>
       <c r="E9">
-        <v>14.88012546058818</v>
+        <v>9.029348003242053</v>
       </c>
       <c r="F9">
-        <v>36.61237524645715</v>
+        <v>24.26324869002092</v>
       </c>
       <c r="G9">
-        <v>3.679254988357498</v>
+        <v>2.106510831625198</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.55924651818902</v>
+        <v>18.16582363501809</v>
       </c>
       <c r="J9">
-        <v>11.23380577579654</v>
+        <v>7.022742636526612</v>
       </c>
       <c r="K9">
-        <v>9.762222151399543</v>
+        <v>14.45292479925712</v>
       </c>
       <c r="L9">
-        <v>10.05453838211056</v>
+        <v>7.019699944061178</v>
       </c>
       <c r="M9">
-        <v>14.88901935568959</v>
+        <v>10.35575002507096</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.73882492825158</v>
+        <v>17.85196693993717</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.83742581507478</v>
+        <v>13.42452215884892</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.010446696228975</v>
+        <v>5.606931510635166</v>
       </c>
       <c r="E10">
-        <v>14.83402837523326</v>
+        <v>8.919008936918377</v>
       </c>
       <c r="F10">
-        <v>36.48714630551928</v>
+        <v>24.49485602258661</v>
       </c>
       <c r="G10">
-        <v>3.67642765961067</v>
+        <v>2.098544151207508</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.37794342083683</v>
+        <v>17.69495280331026</v>
       </c>
       <c r="J10">
-        <v>11.21125152074336</v>
+        <v>6.957150680092293</v>
       </c>
       <c r="K10">
-        <v>10.19569586932578</v>
+        <v>15.54416784629218</v>
       </c>
       <c r="L10">
-        <v>10.10260516588068</v>
+        <v>7.386959520901988</v>
       </c>
       <c r="M10">
-        <v>14.96235438571532</v>
+        <v>10.89729921667487</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.62274054294489</v>
+        <v>17.88466904387218</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.94190051073367</v>
+        <v>13.84361028407463</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.009098767204389</v>
+        <v>5.652719057862464</v>
       </c>
       <c r="E11">
-        <v>14.81418940067027</v>
+        <v>8.870948016140643</v>
       </c>
       <c r="F11">
-        <v>36.43777016115737</v>
+        <v>24.62312909105688</v>
       </c>
       <c r="G11">
-        <v>3.675203527283136</v>
+        <v>2.095002756732833</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.29994662210366</v>
+        <v>17.49121545477746</v>
       </c>
       <c r="J11">
-        <v>11.20150757724405</v>
+        <v>6.928207674163006</v>
       </c>
       <c r="K11">
-        <v>10.38758036719895</v>
+        <v>16.01708815351995</v>
       </c>
       <c r="L11">
-        <v>10.1255500189486</v>
+        <v>7.550564681419977</v>
       </c>
       <c r="M11">
-        <v>14.9972433932176</v>
+        <v>11.13819243880854</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.57536427261901</v>
+        <v>17.91717715774411</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.98150870035486</v>
+        <v>13.99957881564823</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.008718153865088</v>
+        <v>5.670247401750486</v>
       </c>
       <c r="E12">
-        <v>14.80683878981825</v>
+        <v>8.853056078203315</v>
       </c>
       <c r="F12">
-        <v>36.42016564146635</v>
+        <v>24.6751171344315</v>
       </c>
       <c r="G12">
-        <v>3.674748852512026</v>
+        <v>2.093672943037579</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.27105377791849</v>
+        <v>17.4156350648794</v>
       </c>
       <c r="J12">
-        <v>11.19789165238574</v>
+        <v>6.917374082573819</v>
       </c>
       <c r="K12">
-        <v>10.45941613768696</v>
+        <v>16.19278662078666</v>
       </c>
       <c r="L12">
-        <v>10.13438960689643</v>
+        <v>7.611977370885119</v>
       </c>
       <c r="M12">
-        <v>15.01066830502535</v>
+        <v>11.22856293354546</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.55820616915065</v>
+        <v>17.93215227298156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.97297680474622</v>
+        <v>13.96611022258188</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.008794363514189</v>
+        <v>5.666464031000375</v>
       </c>
       <c r="E13">
-        <v>14.80841468136598</v>
+        <v>8.856895723498766</v>
       </c>
       <c r="F13">
-        <v>36.4239084490265</v>
+        <v>24.66376691435091</v>
       </c>
       <c r="G13">
-        <v>3.674846380704651</v>
+        <v>2.09395885335507</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.27724779671384</v>
+        <v>17.43184165636318</v>
       </c>
       <c r="J13">
-        <v>11.19866712505312</v>
+        <v>6.919701700070799</v>
       </c>
       <c r="K13">
-        <v>10.44398274039496</v>
+        <v>16.15509744672456</v>
       </c>
       <c r="L13">
-        <v>10.13247920348335</v>
+        <v>7.598775731280019</v>
       </c>
       <c r="M13">
-        <v>15.00776763524702</v>
+        <v>11.20913880277532</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.56186666290809</v>
+        <v>17.92880652753794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.94515835254834</v>
+        <v>13.85649684696697</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.009064856277318</v>
+        <v>5.654157362950309</v>
       </c>
       <c r="E14">
-        <v>14.81358141880592</v>
+        <v>8.869469862303893</v>
       </c>
       <c r="F14">
-        <v>36.43629991016073</v>
+        <v>24.62733709935787</v>
       </c>
       <c r="G14">
-        <v>3.675165943239624</v>
+        <v>2.094893130873522</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.29755671351101</v>
+        <v>17.48496552467986</v>
       </c>
       <c r="J14">
-        <v>11.20120861378118</v>
+        <v>6.927313865706624</v>
       </c>
       <c r="K14">
-        <v>10.39350725228996</v>
+        <v>16.03161085060315</v>
       </c>
       <c r="L14">
-        <v>10.12627425864771</v>
+        <v>7.555628207900798</v>
       </c>
       <c r="M14">
-        <v>14.9983436344829</v>
+        <v>11.14564466197297</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.57393698038613</v>
+        <v>17.91835501780817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.92812383233789</v>
+        <v>13.78899875432365</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.009247425797293</v>
+        <v>5.646643670023871</v>
       </c>
       <c r="E15">
-        <v>14.81676727036166</v>
+        <v>8.877211990305439</v>
       </c>
       <c r="F15">
-        <v>36.44403244128813</v>
+        <v>24.60547079958225</v>
       </c>
       <c r="G15">
-        <v>3.675362839378638</v>
+        <v>2.095466845926963</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.31008019444708</v>
+        <v>17.5177120687503</v>
       </c>
       <c r="J15">
-        <v>11.20277496290187</v>
+        <v>6.93199294414681</v>
       </c>
       <c r="K15">
-        <v>10.36248010277944</v>
+        <v>15.95553067815355</v>
       </c>
       <c r="L15">
-        <v>10.1224930684489</v>
+        <v>7.529127474223968</v>
       </c>
       <c r="M15">
-        <v>14.99259872749077</v>
+        <v>11.10664011742664</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.58143230854273</v>
+        <v>17.91230406864757</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.83060620720842</v>
+        <v>13.39675366979299</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.010552991501802</v>
+        <v>5.603966074296044</v>
       </c>
       <c r="E16">
-        <v>14.83534759968458</v>
+        <v>8.92219282711234</v>
       </c>
       <c r="F16">
-        <v>36.49052604408271</v>
+        <v>24.48694444320284</v>
       </c>
       <c r="G16">
-        <v>3.676508904147432</v>
+        <v>2.098777198455242</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.38313071756188</v>
+        <v>17.70848349794191</v>
       </c>
       <c r="J16">
-        <v>11.21189866823922</v>
+        <v>6.959059996520534</v>
       </c>
       <c r="K16">
-        <v>10.18304341651643</v>
+        <v>15.51278777370933</v>
       </c>
       <c r="L16">
-        <v>10.1011270151984</v>
+        <v>7.376194030118468</v>
       </c>
       <c r="M16">
-        <v>14.96010450592863</v>
+        <v>10.88144060761277</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.625946092063</v>
+        <v>17.88291043975091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.77089623953396</v>
+        <v>13.15130217934287</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.011585894379483</v>
+        <v>5.578129455076979</v>
       </c>
       <c r="E17">
-        <v>14.84703520831471</v>
+        <v>8.95033399759077</v>
       </c>
       <c r="F17">
-        <v>36.52099381494385</v>
+        <v>24.4201874170386</v>
       </c>
       <c r="G17">
-        <v>3.677227835516067</v>
+        <v>2.100828716991549</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.42909112583853</v>
+        <v>17.82823965432919</v>
       </c>
       <c r="J17">
-        <v>11.21762772326681</v>
+        <v>6.975892446358034</v>
       </c>
       <c r="K17">
-        <v>10.07155869688465</v>
+        <v>15.23515379935253</v>
       </c>
       <c r="L17">
-        <v>10.08829299460348</v>
+        <v>7.281454716348989</v>
       </c>
       <c r="M17">
-        <v>14.9405572227253</v>
+        <v>10.74184008121306</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.65464582318095</v>
+        <v>17.86948656960391</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73660422337798</v>
+        <v>13.00836773634774</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.012265468461274</v>
+        <v>5.56339770335047</v>
       </c>
       <c r="E18">
-        <v>14.85386408732163</v>
+        <v>8.966720733833149</v>
       </c>
       <c r="F18">
-        <v>36.53923250468159</v>
+        <v>24.38394053111437</v>
       </c>
       <c r="G18">
-        <v>3.677647187264493</v>
+        <v>2.102016520642923</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.45594798098218</v>
+        <v>17.89810069770217</v>
       </c>
       <c r="J18">
-        <v>11.22097152089862</v>
+        <v>6.985658412509754</v>
       </c>
       <c r="K18">
-        <v>10.00693973550747</v>
+        <v>15.07325478354437</v>
       </c>
       <c r="L18">
-        <v>10.08101303604266</v>
+        <v>7.226639377636585</v>
       </c>
       <c r="M18">
-        <v>14.92945842458094</v>
+        <v>10.66103492241178</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.67166427842325</v>
+        <v>17.86341735308497</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.7250033170629</v>
+        <v>12.95967234587358</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.012510261969227</v>
+        <v>5.558432104793747</v>
       </c>
       <c r="E19">
-        <v>14.85619453507535</v>
+        <v>8.972303443028098</v>
       </c>
       <c r="F19">
-        <v>36.54553046513438</v>
+        <v>24.37203351007763</v>
       </c>
       <c r="G19">
-        <v>3.677790177144392</v>
+        <v>2.102420053740381</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.46511370591635</v>
+        <v>17.92192098744324</v>
       </c>
       <c r="J19">
-        <v>11.22211202963954</v>
+        <v>6.988979561295006</v>
       </c>
       <c r="K19">
-        <v>9.984977742106748</v>
+        <v>15.01805916710748</v>
       </c>
       <c r="L19">
-        <v>10.07856578492933</v>
+        <v>7.208025648917927</v>
       </c>
       <c r="M19">
-        <v>14.92572554029424</v>
+        <v>10.63359012523722</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.6775141817427</v>
+        <v>17.86164217400081</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77724734861828</v>
+        <v>13.17761313792481</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.011467098687845</v>
+        <v>5.580866525773083</v>
       </c>
       <c r="E20">
-        <v>14.84578002720121</v>
+        <v>8.947317546269391</v>
       </c>
       <c r="F20">
-        <v>36.51767651548095</v>
+        <v>24.42707042238108</v>
       </c>
       <c r="G20">
-        <v>3.677150699788265</v>
+        <v>2.100609524162954</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.42415493222818</v>
+        <v>17.81538948494579</v>
       </c>
       <c r="J20">
-        <v>11.21701282832794</v>
+        <v>6.974091885649925</v>
       </c>
       <c r="K20">
-        <v>10.08347824161478</v>
+        <v>15.2649373588034</v>
       </c>
       <c r="L20">
-        <v>10.08964868952302</v>
+        <v>7.291573720907094</v>
       </c>
       <c r="M20">
-        <v>14.94262317883974</v>
+        <v>10.75675414619085</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.65153777837853</v>
+        <v>17.87074366515589</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.95332830004562</v>
+        <v>13.88876735549962</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.008981888489625</v>
+        <v>5.657767036231186</v>
       </c>
       <c r="E21">
-        <v>14.81205943174296</v>
+        <v>8.865768172898498</v>
       </c>
       <c r="F21">
-        <v>36.43263055845455</v>
+        <v>24.6379438490083</v>
       </c>
       <c r="G21">
-        <v>3.675071839381294</v>
+        <v>2.094618411404038</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.29157405499163</v>
+        <v>17.46931856228175</v>
       </c>
       <c r="J21">
-        <v>11.20046011397506</v>
+        <v>6.925074572900949</v>
       </c>
       <c r="K21">
-        <v>10.40835604262236</v>
+        <v>16.06797377701684</v>
       </c>
       <c r="L21">
-        <v>10.12809274176572</v>
+        <v>7.568316677121595</v>
       </c>
       <c r="M21">
-        <v>15.00110595938435</v>
+        <v>11.16431798950752</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.57037039539492</v>
+        <v>17.92135152110115</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.06866106827364</v>
+        <v>14.33761783832844</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.008113994661317</v>
+        <v>5.709128073443755</v>
       </c>
       <c r="E22">
-        <v>14.79096491738746</v>
+        <v>8.814265086021187</v>
       </c>
       <c r="F22">
-        <v>36.3834204111503</v>
+        <v>24.7957114640584</v>
       </c>
       <c r="G22">
-        <v>3.673764909626503</v>
+        <v>2.090768029598358</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.20867128228449</v>
+        <v>17.25233289383454</v>
       </c>
       <c r="J22">
-        <v>11.19007252924834</v>
+        <v>6.893775191646176</v>
       </c>
       <c r="K22">
-        <v>10.61583830329998</v>
+        <v>16.57306962718403</v>
       </c>
       <c r="L22">
-        <v>10.1540954400318</v>
+        <v>7.746015021609352</v>
       </c>
       <c r="M22">
-        <v>15.04056732887578</v>
+        <v>11.42570294192778</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.52188297711038</v>
+        <v>17.97002017092809</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.00709248337312</v>
+        <v>14.09952659158296</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.008508239851791</v>
+        <v>5.68161702871737</v>
       </c>
       <c r="E23">
-        <v>14.8021373022464</v>
+        <v>8.8415886786093</v>
       </c>
       <c r="F23">
-        <v>36.40910127104191</v>
+        <v>24.70964466450856</v>
       </c>
       <c r="G23">
-        <v>3.674457723774538</v>
+        <v>2.092817315729917</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.25257563625451</v>
+        <v>17.3672769501885</v>
       </c>
       <c r="J23">
-        <v>11.19557728619464</v>
+        <v>6.910413633578877</v>
       </c>
       <c r="K23">
-        <v>10.50556389771862</v>
+        <v>16.30529658669577</v>
       </c>
       <c r="L23">
-        <v>10.14013849647362</v>
+        <v>7.65147667196527</v>
       </c>
       <c r="M23">
-        <v>15.01939487554265</v>
+        <v>11.28667194997174</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.54734396812293</v>
+        <v>17.94257527238163</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.774375897644</v>
+        <v>13.16572362243518</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.011520539098036</v>
+        <v>5.57962871540794</v>
       </c>
       <c r="E24">
-        <v>14.84634715341165</v>
+        <v>8.948680636100852</v>
       </c>
       <c r="F24">
-        <v>36.51917401657509</v>
+        <v>24.42395198210484</v>
       </c>
       <c r="G24">
-        <v>3.677185554069255</v>
+        <v>2.100708595157114</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.4263852346113</v>
+        <v>17.82119590036683</v>
       </c>
       <c r="J24">
-        <v>11.21729066628989</v>
+        <v>6.974905642490705</v>
       </c>
       <c r="K24">
-        <v>10.07809104550581</v>
+        <v>15.25147932359358</v>
       </c>
       <c r="L24">
-        <v>10.08903547273668</v>
+        <v>7.287000000939062</v>
       </c>
       <c r="M24">
-        <v>14.94168872600412</v>
+        <v>10.75001319600108</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.65294131012129</v>
+        <v>17.87017020784879</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52544783836396</v>
+        <v>12.09159074436516</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.018040232544298</v>
+        <v>5.47456729620054</v>
       </c>
       <c r="E25">
-        <v>14.89810813045954</v>
+        <v>9.071867917181361</v>
       </c>
       <c r="F25">
-        <v>36.66521113875774</v>
+        <v>24.19745145890711</v>
       </c>
       <c r="G25">
-        <v>3.680351474113276</v>
+        <v>2.109522116785214</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.62999297546332</v>
+        <v>18.34811765265348</v>
       </c>
       <c r="J25">
-        <v>11.24257138652865</v>
+        <v>7.047705855100003</v>
       </c>
       <c r="K25">
-        <v>9.598346821690253</v>
+        <v>14.03034389031403</v>
       </c>
       <c r="L25">
-        <v>10.0378214437589</v>
+        <v>6.881703920149953</v>
       </c>
       <c r="M25">
-        <v>14.86341052512986</v>
+        <v>10.15196415936201</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.78638085103452</v>
+        <v>17.8546958233712</v>
       </c>
     </row>
   </sheetData>
